--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -56,7 +56,10 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
   </si>
   <si>
     <t>ALVAREZ TRUJILLO YNES</t>
@@ -69,9 +72,6 @@
   </si>
   <si>
     <t>ARI COAQUIRA ROLY ANTONY</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>ARROYO NUÑEZ CESAR AURELIO</t>
@@ -635,7 +635,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,8 +705,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8">
+        <v>70082701</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -720,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9">
-        <v>10313207</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -740,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>76478671</v>
+        <v>10313207</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -754,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>20036250</v>
+        <v>76478671</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>20036250</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -788,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>41667405</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -805,10 +805,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>71820627</v>
+        <v>41667405</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -822,10 +822,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>72890114</v>
+        <v>71820627</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -839,10 +839,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>72890114</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -856,10 +856,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -873,10 +873,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>46067198</v>
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -890,10 +890,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>10751826</v>
+        <v>46067198</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -907,10 +907,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>73830015</v>
+        <v>10751826</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -924,10 +924,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>71932542</v>
+        <v>73830015</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -941,10 +941,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>22284149</v>
+        <v>71932542</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -958,10 +958,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>22284149</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -975,10 +975,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>71942763</v>
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -992,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>10281988</v>
+        <v>71942763</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1009,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>25608087</v>
+        <v>10281988</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1026,10 +1026,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>25608087</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1043,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28">
-        <v>74174466</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1060,10 +1060,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>74174466</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1077,10 +1077,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1094,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31">
-        <v>40802035</v>
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1111,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>10634270</v>
+        <v>40802035</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -1128,10 +1128,10 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>42778331</v>
+        <v>10634270</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1145,10 +1145,10 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>76640732</v>
+        <v>42778331</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1162,10 +1162,10 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>21301845</v>
+        <v>76640732</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1179,10 +1179,10 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>21276405</v>
+        <v>21301845</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1196,10 +1196,10 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>21276405</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -1213,10 +1213,10 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1230,10 +1230,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1247,10 +1247,10 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40">
-        <v>72306549</v>
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1264,10 +1264,10 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>70613887</v>
+        <v>72306549</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -1281,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>47425100</v>
+        <v>70613887</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -1298,10 +1298,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>47425100</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -1332,10 +1332,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45">
-        <v>10307288</v>
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -1349,10 +1349,10 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46">
-        <v>44660228</v>
+        <v>10307288</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -1366,10 +1366,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>44660228</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -1383,10 +1383,10 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1400,10 +1400,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -1417,10 +1417,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50">
-        <v>44068092</v>
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -1434,10 +1434,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>45077172</v>
+        <v>44068092</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -1451,10 +1451,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
-        <v>43281347</v>
+        <v>45077172</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -1468,10 +1468,10 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53">
-        <v>72701092</v>
+        <v>43281347</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -1485,10 +1485,10 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <v>72701092</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -1502,10 +1502,10 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55">
-        <v>10712208</v>
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -1519,10 +1519,10 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>10712208</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -1536,10 +1536,10 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -1553,10 +1553,10 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58">
-        <v>45882664</v>
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -1570,10 +1570,10 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59">
-        <v>43095718</v>
+        <v>45882664</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -1587,10 +1587,10 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60">
-        <v>41310878</v>
+        <v>43095718</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -1604,10 +1604,10 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
-        <v>18217223</v>
+        <v>41310878</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -1621,10 +1621,10 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>18217223</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -1638,10 +1638,10 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63">
-        <v>42284795</v>
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -1655,10 +1655,10 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64">
-        <v>41095867</v>
+        <v>42284795</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -1672,15 +1672,32 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65">
+        <v>41095867</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
         <v>92</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>93</v>
       </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
         <v>13</v>
       </c>
     </row>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,7 +56,7 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>ARROYO NUÑEZ CESAR AURELIO</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>AVELLANEDA GUERRERO LUIS CARLOMAN</t>
@@ -780,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -788,10 +791,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -805,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>41667405</v>
@@ -822,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>71820627</v>
@@ -839,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>72890114</v>
@@ -856,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -873,10 +876,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -890,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>46067198</v>
@@ -907,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>10751826</v>
@@ -924,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>73830015</v>
@@ -941,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>71932542</v>
@@ -958,7 +961,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>22284149</v>
@@ -975,10 +978,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -992,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>71942763</v>
@@ -1009,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>10281988</v>
@@ -1026,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>25608087</v>
@@ -1043,10 +1046,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1060,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>74174466</v>
@@ -1077,10 +1080,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1094,10 +1097,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1111,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>40802035</v>
@@ -1128,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>10634270</v>
@@ -1145,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>42778331</v>
@@ -1162,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>76640732</v>
@@ -1179,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>21301845</v>
@@ -1196,7 +1199,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>21276405</v>
@@ -1213,10 +1216,10 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1230,10 +1233,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1247,10 +1250,10 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1264,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>72306549</v>
@@ -1281,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>70613887</v>
@@ -1298,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>47425100</v>
@@ -1315,10 +1318,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -1332,10 +1335,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -1349,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>10307288</v>
@@ -1366,7 +1369,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>44660228</v>
@@ -1383,10 +1386,10 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1400,10 +1403,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -1417,10 +1420,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -1434,7 +1437,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>44068092</v>
@@ -1451,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>45077172</v>
@@ -1468,7 +1471,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>43281347</v>
@@ -1485,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>72701092</v>
@@ -1502,10 +1505,10 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -1519,7 +1522,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>10712208</v>
@@ -1536,10 +1539,10 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -1553,10 +1556,10 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -1570,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <v>45882664</v>
@@ -1587,7 +1590,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>43095718</v>
@@ -1604,7 +1607,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>41310878</v>
@@ -1621,7 +1624,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>18217223</v>
@@ -1638,10 +1641,10 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -1655,7 +1658,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64">
         <v>42284795</v>
@@ -1672,7 +1675,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65">
         <v>41095867</v>
@@ -1689,10 +1692,10 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -47,10 +47,10 @@
     <t>FECHA INGRESO</t>
   </si>
   <si>
-    <t>VIZCARRA CORNEJO MARTIN ALBERTO</t>
-  </si>
-  <si>
-    <t>04412417</t>
+    <t>AGUILAR APONTE JUAN PABLO</t>
+  </si>
+  <si>
+    <t>000789910</t>
   </si>
   <si>
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
@@ -59,13 +59,247 @@
     <t>D</t>
   </si>
   <si>
-    <t>GARCIA PEREZ ALAN GABRIEL</t>
-  </si>
-  <si>
-    <t>07768359</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO YNES</t>
+  </si>
+  <si>
+    <t>06813229</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
+  </si>
+  <si>
+    <t>ARI COAQUIRA ROLY ANTONY</t>
+  </si>
+  <si>
+    <t>ARROYO NUÑEZ CESAR AURELIO</t>
+  </si>
+  <si>
+    <t>AVELLANEDA GUERRERO LUIS CARLOMAN</t>
+  </si>
+  <si>
+    <t>06708203</t>
+  </si>
+  <si>
+    <t>CABALLERO GUILLEN RAUL</t>
+  </si>
+  <si>
+    <t>CASTRO SARAVIA CLAUDIA VALERIA</t>
+  </si>
+  <si>
+    <t>CHANDUVI SALAZAR KIARA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA EUSEBIA ROSA</t>
+  </si>
+  <si>
+    <t>09680835</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA OSWALDO TOMAS</t>
+  </si>
+  <si>
+    <t>08934899</t>
+  </si>
+  <si>
+    <t>CONTRERAS PAREDES KAREN NIEVES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL CADAGAN RAUL ALFREDO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ GUTIERREZ ARON ALONSO</t>
+  </si>
+  <si>
+    <t>DIONICIO CORZO JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FLORES BARRIOS EDWIN ALFREDO</t>
+  </si>
+  <si>
+    <t>GARCIA MORI MIRIAM MARLENE</t>
+  </si>
+  <si>
+    <t>09383118</t>
+  </si>
+  <si>
+    <t>GARCIA JUAREZ JIMENA ISABEL</t>
+  </si>
+  <si>
+    <t>GARCIA REVILLA MARIA ANA</t>
+  </si>
+  <si>
+    <t>GARCIA AREVALO ROGER WALTER</t>
+  </si>
+  <si>
+    <t>GASSER GORDILLO GUSTAVO GUILLERMO</t>
+  </si>
+  <si>
+    <t>000853189</t>
+  </si>
+  <si>
+    <t>GOMEZ CUYUBAMBA CRISTHOPER JHOEL</t>
+  </si>
+  <si>
+    <t>GONZALES IÑIGUEZ TEDDY JOSE</t>
+  </si>
+  <si>
+    <t>000458816</t>
+  </si>
+  <si>
+    <t>GROCK PEREIRA LUIS ARTURO</t>
+  </si>
+  <si>
+    <t>000692215</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VALDIVIA JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>HOUGHTON ARAUJO EDUARDO MANUEL</t>
+  </si>
+  <si>
+    <t>INFANTES LIVIA ROSA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>JIMENEZ TOLEDO JUAN DIEGO</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JESSICA YASMIN</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JHONNY AUGUSTO</t>
+  </si>
+  <si>
+    <t>LA TORRE JUSTO ANIBAL MARTIN</t>
+  </si>
+  <si>
+    <t>07038472</t>
+  </si>
+  <si>
+    <t>MASS URIBE ALVARO</t>
+  </si>
+  <si>
+    <t>000821937</t>
+  </si>
+  <si>
+    <t>MAYORCA FERREYROS MICHEL AGUSTIN</t>
+  </si>
+  <si>
+    <t>06097752</t>
+  </si>
+  <si>
+    <t>MAYORCA CABEZUDO MICHEL MAURICIO</t>
+  </si>
+  <si>
+    <t>MITAC SALLO ZULEMA</t>
+  </si>
+  <si>
+    <t>MONTALVO PACHECO KAREN LIZZET</t>
+  </si>
+  <si>
+    <t>MONTENEGRO NIEME MONICA NEL</t>
+  </si>
+  <si>
+    <t>005982120</t>
+  </si>
+  <si>
+    <t>MONTENEGRO VIRREIRA MARIO GONZALO</t>
+  </si>
+  <si>
+    <t>000148566</t>
+  </si>
+  <si>
+    <t>MONTEZA VILCA SUSANA ISABEL</t>
+  </si>
+  <si>
+    <t>OBANDO CORNEJO SERGIO DAVID</t>
+  </si>
+  <si>
+    <t>OBISPO LOPEZ JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>08165961</t>
+  </si>
+  <si>
+    <t>PANIAGUA HUMEREZ JOSE OSCAR</t>
+  </si>
+  <si>
+    <t>000435778</t>
+  </si>
+  <si>
+    <t>PEÑA CUBA RICHARD JUAN</t>
+  </si>
+  <si>
+    <t>08488980</t>
+  </si>
+  <si>
+    <t>PILCO ROMERO ERIKA MABEL</t>
+  </si>
+  <si>
+    <t>PINEDO MARINA SARA BEATRIZ</t>
+  </si>
+  <si>
+    <t>ROSADIO ESPINOZA ARTURO RAUL</t>
+  </si>
+  <si>
+    <t>SALAZAR JIMENEZ CRISY ROCIO</t>
+  </si>
+  <si>
+    <t>SAVINA . GUSTAVO FABIAN</t>
+  </si>
+  <si>
+    <t>000685634</t>
+  </si>
+  <si>
+    <t>SOLARI APARICIO ALBERTO FERNANDO</t>
+  </si>
+  <si>
+    <t>TABORGA OROZA JORGE CARLOS</t>
+  </si>
+  <si>
+    <t>000540903</t>
+  </si>
+  <si>
+    <t>TEJEDA VILLENA CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>09619538</t>
+  </si>
+  <si>
+    <t>TUÑOQUE VILCHEZ MARIA CANDELARIA</t>
+  </si>
+  <si>
+    <t>UMIÑA FLORES BEATRIZ SILVIA</t>
+  </si>
+  <si>
+    <t>URIARTE CONDORI JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>VALLEJOS BAZAN SANDRA CECILIA</t>
+  </si>
+  <si>
+    <t>VARGAS ZABALA ALBERT OSCAR</t>
+  </si>
+  <si>
+    <t>000809716</t>
+  </si>
+  <si>
+    <t>VELA VASQUEZ SAUL</t>
+  </si>
+  <si>
+    <t>VERGARAY ARBIETO DE LOURS LISSETTE MIRELLE</t>
+  </si>
+  <si>
+    <t>VIRREIRA AVILA MAURICIO MARTIN</t>
+  </si>
+  <si>
+    <t>000426973</t>
   </si>
 </sst>
 </file>
@@ -404,7 +638,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,14 +708,1000 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>70082701</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>10313207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>76478671</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>20036250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>41667405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>71820627</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>72890114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>46067198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>10751826</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>73830015</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>71932542</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>22284149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>71942763</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>10281988</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>25608087</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>74174466</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>40802035</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>10634270</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>42778331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>76640732</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>21301845</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>21276405</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>72306549</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>70613887</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>47425100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>10307288</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>44660228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>44068092</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>45077172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>43281347</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>72701092</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>10712208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59">
+        <v>45882664</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60">
+        <v>43095718</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>41310878</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62">
+        <v>18217223</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64">
+        <v>42284795</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65">
+        <v>41095867</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,7 +56,7 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>D</t>
+    <t>V</t>
   </si>
   <si>
     <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>KU MUÑOZ JESSICA YASMIN</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>KU MUÑOZ JHONNY AUGUSTO</t>
@@ -1191,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1199,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>21276405</v>
@@ -1208,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1216,16 +1213,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1233,16 +1230,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1250,16 +1247,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1267,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>72306549</v>
@@ -1276,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1284,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>70613887</v>
@@ -1293,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1301,7 +1298,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>47425100</v>
@@ -1310,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1318,16 +1315,16 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1335,16 +1332,16 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1352,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>10307288</v>
@@ -1361,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1369,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>44660228</v>
@@ -1378,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1386,16 +1383,16 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
-        <v>69</v>
-      </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1403,16 +1400,16 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1420,16 +1417,16 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1437,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>44068092</v>
@@ -1446,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1454,7 +1451,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>45077172</v>
@@ -1463,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1471,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>43281347</v>
@@ -1480,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1488,7 +1485,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>72701092</v>
@@ -1497,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1505,16 +1502,16 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
         <v>78</v>
       </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1522,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>10712208</v>
@@ -1531,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1539,16 +1536,16 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1556,16 +1553,16 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1573,7 +1570,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>45882664</v>
@@ -1582,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1590,7 +1587,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>43095718</v>
@@ -1599,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1607,7 +1604,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>41310878</v>
@@ -1616,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1624,7 +1621,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>18217223</v>
@@ -1633,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1641,16 +1638,16 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1658,7 +1655,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64">
         <v>42284795</v>
@@ -1667,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1675,7 +1672,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65">
         <v>41095867</v>
@@ -1684,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1692,16 +1689,16 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
         <v>93</v>
       </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -56,7 +56,7 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>V</t>
+    <t>A</t>
   </si>
   <si>
     <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -56,7 +56,7 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>A</t>
+    <t>V</t>
   </si>
   <si>
     <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,22 +56,28 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO YNES</t>
+  </si>
+  <si>
+    <t>06813229</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ARI COAQUIRA ROLY ANTONY</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
-  </si>
-  <si>
-    <t>ALVAREZ TRUJILLO YNES</t>
-  </si>
-  <si>
-    <t>06813229</t>
-  </si>
-  <si>
-    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
-  </si>
-  <si>
-    <t>ARI COAQUIRA ROLY ANTONY</t>
   </si>
   <si>
     <t>ARROYO NUÑEZ CESAR AURELIO</t>
@@ -746,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -754,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>76478671</v>
@@ -763,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -771,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>20036250</v>
@@ -780,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -788,16 +794,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -805,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>41667405</v>
@@ -814,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -822,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>71820627</v>
@@ -831,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -839,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>72890114</v>
@@ -848,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -856,16 +862,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -873,16 +879,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -890,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>46067198</v>
@@ -899,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -907,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>10751826</v>
@@ -916,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -924,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>73830015</v>
@@ -933,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -941,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>71932542</v>
@@ -950,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -958,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>22284149</v>
@@ -967,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -975,16 +981,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -992,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>71942763</v>
@@ -1001,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>10281988</v>
@@ -1018,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>25608087</v>
@@ -1035,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1043,16 +1049,16 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1060,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>74174466</v>
@@ -1069,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1077,16 +1083,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1094,16 +1100,16 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1111,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>40802035</v>
@@ -1120,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1128,7 +1134,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>10634270</v>
@@ -1137,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1145,7 +1151,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>42778331</v>
@@ -1154,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1162,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>76640732</v>
@@ -1171,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1179,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>21301845</v>
@@ -1188,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1196,7 +1202,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>21276405</v>
@@ -1205,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1213,16 +1219,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1230,16 +1236,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1247,16 +1253,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1264,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>72306549</v>
@@ -1273,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1281,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>70613887</v>
@@ -1290,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1298,7 +1304,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>47425100</v>
@@ -1307,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1315,16 +1321,16 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1332,16 +1338,16 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1349,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>10307288</v>
@@ -1358,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1366,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>44660228</v>
@@ -1375,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1383,16 +1389,16 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1400,16 +1406,16 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1417,16 +1423,16 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1434,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>44068092</v>
@@ -1443,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1451,7 +1457,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>45077172</v>
@@ -1460,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1468,7 +1474,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>43281347</v>
@@ -1477,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1485,7 +1491,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>72701092</v>
@@ -1494,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1502,16 +1508,16 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1519,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>10712208</v>
@@ -1528,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1536,16 +1542,16 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1553,16 +1559,16 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1570,7 +1576,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>45882664</v>
@@ -1579,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1587,7 +1593,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60">
         <v>43095718</v>
@@ -1596,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1604,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>41310878</v>
@@ -1613,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1621,7 +1627,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>18217223</v>
@@ -1630,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1638,16 +1644,16 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1655,7 +1661,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>42284795</v>
@@ -1664,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1672,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65">
         <v>41095867</v>
@@ -1681,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1689,16 +1695,16 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,10 +56,238 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>d</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO YNES</t>
+  </si>
+  <si>
+    <t>06813229</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
+  </si>
+  <si>
+    <t>ARI COAQUIRA ROLY ANTONY</t>
+  </si>
+  <si>
+    <t>ARROYO NUÑEZ CESAR AURELIO</t>
+  </si>
+  <si>
+    <t>AVELLANEDA GUERRERO LUIS CARLOMAN</t>
+  </si>
+  <si>
+    <t>06708203</t>
+  </si>
+  <si>
+    <t>CABALLERO GUILLEN RAUL</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA EUSEBIA ROSA</t>
+  </si>
+  <si>
+    <t>09680835</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA OSWALDO TOMAS</t>
+  </si>
+  <si>
+    <t>08934899</t>
+  </si>
+  <si>
+    <t>CONTRERAS PAREDES KAREN NIEVES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL CADAGAN RAUL ALFREDO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ GUTIERREZ ARON ALONSO</t>
+  </si>
+  <si>
+    <t>DIONICIO CORZO JOSE LUIS</t>
   </si>
   <si>
     <t>FLORES BARRIOS EDWIN ALFREDO</t>
+  </si>
+  <si>
+    <t>GARCIA JUAREZ JIMENA ISABEL</t>
+  </si>
+  <si>
+    <t>GARCIA MORI MIRIAM MARLENE</t>
+  </si>
+  <si>
+    <t>09383118</t>
+  </si>
+  <si>
+    <t>GARCIA REVILLA MARIA ANA</t>
+  </si>
+  <si>
+    <t>GARCIA AREVALO ROGER WALTER</t>
+  </si>
+  <si>
+    <t>GASSER GORDILLO GUSTAVO GUILLERMO</t>
+  </si>
+  <si>
+    <t>000853189</t>
+  </si>
+  <si>
+    <t>GOMEZ CUYUBAMBA CRISTHOPER JHOEL</t>
+  </si>
+  <si>
+    <t>GONZALES IÑIGUEZ TEDDY JOSE</t>
+  </si>
+  <si>
+    <t>000458816</t>
+  </si>
+  <si>
+    <t>GROCK PEREIRA LUIS ARTURO</t>
+  </si>
+  <si>
+    <t>000692215</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VALDIVIA JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>HOUGHTON ARAUJO EDUARDO MANUEL</t>
+  </si>
+  <si>
+    <t>INFANTES LIVIA ROSA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JHONNY AUGUSTO</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JESSICA YASMIN</t>
+  </si>
+  <si>
+    <t>LA TORRE JUSTO ANIBAL MARTIN</t>
+  </si>
+  <si>
+    <t>07038472</t>
+  </si>
+  <si>
+    <t>MASS URIBE ALVARO</t>
+  </si>
+  <si>
+    <t>000821937</t>
+  </si>
+  <si>
+    <t>MAYORCA FERREYROS MICHEL AGUSTIN</t>
+  </si>
+  <si>
+    <t>06097752</t>
+  </si>
+  <si>
+    <t>MAYORCA CABEZUDO MICHEL MAURICIO</t>
+  </si>
+  <si>
+    <t>MONTALVO PACHECO KAREN LIZZET</t>
+  </si>
+  <si>
+    <t>MONTENEGRO NIEME MONICA NEL</t>
+  </si>
+  <si>
+    <t>005982120</t>
+  </si>
+  <si>
+    <t>MONTENEGRO VIRREIRA MARIO GONZALO</t>
+  </si>
+  <si>
+    <t>000148566</t>
+  </si>
+  <si>
+    <t>MONTEZA VILCA SUSANA ISABEL</t>
+  </si>
+  <si>
+    <t>OBANDO CORNEJO SERGIO DAVID</t>
+  </si>
+  <si>
+    <t>OBISPO LOPEZ JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>08165961</t>
+  </si>
+  <si>
+    <t>PANIAGUA HUMEREZ JOSE OSCAR</t>
+  </si>
+  <si>
+    <t>000435778</t>
+  </si>
+  <si>
+    <t>PEÑA CUBA RICHARD JUAN</t>
+  </si>
+  <si>
+    <t>08488980</t>
+  </si>
+  <si>
+    <t>PILCO ROMERO ERIKA MABEL</t>
+  </si>
+  <si>
+    <t>PINEDO MARINA SARA BEATRIZ</t>
+  </si>
+  <si>
+    <t>ROSADIO ESPINOZA ARTURO RAUL</t>
+  </si>
+  <si>
+    <t>SALAZAR JIMENEZ CRISY ROCIO</t>
+  </si>
+  <si>
+    <t>SAVINA . GUSTAVO FABIAN</t>
+  </si>
+  <si>
+    <t>000685634</t>
+  </si>
+  <si>
+    <t>SOLARI APARICIO ALBERTO FERNANDO</t>
+  </si>
+  <si>
+    <t>TABORGA OROZA JORGE CARLOS</t>
+  </si>
+  <si>
+    <t>000540903</t>
+  </si>
+  <si>
+    <t>TEJEDA VILLENA CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>09619538</t>
+  </si>
+  <si>
+    <t>TUÑOQUE VILCHEZ MARIA CANDELARIA</t>
+  </si>
+  <si>
+    <t>UMIÑA FLORES BEATRIZ SILVIA</t>
+  </si>
+  <si>
+    <t>URIARTE CONDORI JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>VALLEJOS BAZAN SANDRA CECILIA</t>
+  </si>
+  <si>
+    <t>VARGAS ZABALA ALBERT OSCAR</t>
+  </si>
+  <si>
+    <t>000809716</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>VELA VASQUEZ SAUL</t>
+  </si>
+  <si>
+    <t>VERGARAY ARBIETO DE LOURS LISSETTE MIRELLE</t>
+  </si>
+  <si>
+    <t>VIRREIRA AVILA MAURICIO MARTIN</t>
+  </si>
+  <si>
+    <t>000426973</t>
   </si>
 </sst>
 </file>
@@ -398,7 +626,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,18 +691,936 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
+        <v>70082701</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>10313207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>76478671</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>20036250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>41667405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>46067198</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>10751826</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>73830015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>71932542</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
         <v>22284149</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>71942763</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>10281988</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>25608087</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>74174466</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>40802035</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>10634270</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>42778331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>21276405</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>21301845</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>72306549</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>47425100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>10307288</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>44660228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>44068092</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>45077172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>43281347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>72701092</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>10712208</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>45882664</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>43095718</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>41310878</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>18217223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <v>42284795</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>41095867</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>13</v>
       </c>
     </row>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,12 +56,15 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
-  </si>
-  <si>
     <t>ALVAREZ TRUJILLO YNES</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>CABALLERO GUILLEN RAUL</t>
   </si>
   <si>
+    <t>CHANDUVI SALAZAR KIARA ALESSANDRA</t>
+  </si>
+  <si>
     <t>CHAVEZ HUANCAYA EUSEBIA ROSA</t>
   </si>
   <si>
@@ -113,15 +119,15 @@
     <t>FLORES BARRIOS EDWIN ALFREDO</t>
   </si>
   <si>
+    <t>GARCIA MORI MIRIAM MARLENE</t>
+  </si>
+  <si>
+    <t>09383118</t>
+  </si>
+  <si>
     <t>GARCIA JUAREZ JIMENA ISABEL</t>
   </si>
   <si>
-    <t>GARCIA MORI MIRIAM MARLENE</t>
-  </si>
-  <si>
-    <t>09383118</t>
-  </si>
-  <si>
     <t>GARCIA REVILLA MARIA ANA</t>
   </si>
   <si>
@@ -183,6 +189,9 @@
   </si>
   <si>
     <t>MAYORCA CABEZUDO MICHEL MAURICIO</t>
+  </si>
+  <si>
+    <t>MITAC SALLO ZULEMA</t>
   </si>
   <si>
     <t>MONTALVO PACHECO KAREN LIZZET</t>
@@ -626,7 +635,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -711,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -728,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>10313207</v>
@@ -737,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -745,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>76478671</v>
@@ -754,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -762,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>20036250</v>
@@ -771,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -779,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -796,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>41667405</v>
@@ -805,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -813,16 +822,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
         <v>24</v>
       </c>
+      <c r="C15">
+        <v>72890114</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -839,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -849,14 +858,14 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
-        <v>46067198</v>
+      <c r="C17" t="s">
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -864,16 +873,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>10751826</v>
+        <v>46067198</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -881,16 +890,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>73830015</v>
+        <v>10751826</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -898,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>71932542</v>
+        <v>73830015</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -915,16 +924,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>22284149</v>
+        <v>71932542</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -932,16 +941,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>71942763</v>
+        <v>22284149</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -949,16 +958,16 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -966,16 +975,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>10281988</v>
+        <v>71942763</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -983,16 +992,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>25608087</v>
+        <v>10281988</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1000,16 +1009,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
         <v>38</v>
       </c>
+      <c r="C26">
+        <v>25608087</v>
+      </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1019,14 +1028,14 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27">
-        <v>74174466</v>
+      <c r="C27" t="s">
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1034,16 +1043,16 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
         <v>41</v>
       </c>
+      <c r="C28">
+        <v>74174466</v>
+      </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1060,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1070,14 +1079,14 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30">
-        <v>40802035</v>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1085,16 +1094,16 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
-        <v>10634270</v>
+        <v>40802035</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1102,16 +1111,16 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>42778331</v>
+        <v>10634270</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1119,16 +1128,16 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>21276405</v>
+        <v>42778331</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1136,16 +1145,16 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>21301845</v>
+        <v>21276405</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1153,16 +1162,16 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
         <v>50</v>
       </c>
+      <c r="C35">
+        <v>21301845</v>
+      </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1179,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1196,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1206,14 +1215,14 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38">
-        <v>72306549</v>
+      <c r="C38" t="s">
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1221,16 +1230,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>47425100</v>
+        <v>72306549</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1238,16 +1247,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
         <v>58</v>
       </c>
+      <c r="C40">
+        <v>70613887</v>
+      </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1257,14 +1266,14 @@
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" t="s">
-        <v>60</v>
+      <c r="C41">
+        <v>47425100</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1272,16 +1281,16 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="C42">
-        <v>10307288</v>
-      </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1291,14 +1300,14 @@
       <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43">
-        <v>44660228</v>
+      <c r="C43" t="s">
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1306,16 +1315,16 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
         <v>64</v>
       </c>
+      <c r="C44">
+        <v>10307288</v>
+      </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1325,14 +1334,14 @@
       <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="C45" t="s">
-        <v>66</v>
+      <c r="C45">
+        <v>44660228</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1340,16 +1349,16 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1357,16 +1366,16 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="C47">
-        <v>44068092</v>
-      </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1376,14 +1385,14 @@
       <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="C48">
-        <v>45077172</v>
+      <c r="C48" t="s">
+        <v>71</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1391,16 +1400,16 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49">
-        <v>43281347</v>
+        <v>44068092</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1408,16 +1417,16 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50">
-        <v>72701092</v>
+        <v>45077172</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1425,16 +1434,16 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s">
         <v>74</v>
       </c>
+      <c r="C51">
+        <v>43281347</v>
+      </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1445,13 +1454,13 @@
         <v>75</v>
       </c>
       <c r="C52">
-        <v>10712208</v>
+        <v>72701092</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1468,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1478,14 +1487,14 @@
       <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="C54" t="s">
-        <v>79</v>
+      <c r="C54">
+        <v>10712208</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1493,16 +1502,16 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="C55">
-        <v>45882664</v>
-      </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1512,14 +1521,14 @@
       <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C56">
-        <v>43095718</v>
+      <c r="C56" t="s">
+        <v>82</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1527,16 +1536,16 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57">
-        <v>41310878</v>
+        <v>45882664</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1544,16 +1553,16 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58">
-        <v>18217223</v>
+        <v>43095718</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1561,16 +1570,16 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" t="s">
         <v>85</v>
       </c>
+      <c r="C59">
+        <v>41310878</v>
+      </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1578,16 +1587,16 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60">
-        <v>42284795</v>
+        <v>18217223</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1595,16 +1604,16 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
         <v>88</v>
       </c>
-      <c r="C61">
-        <v>41095867</v>
-      </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1612,16 +1621,50 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>42284795</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>89</v>
       </c>
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63">
+        <v>41095867</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -56,15 +56,12 @@
     <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
-    <t>V</t>
+    <t>D</t>
   </si>
   <si>
     <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ALVAREZ TRUJILLO YNES</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
   </si>
   <si>
     <t>000809716</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>VELA VASQUEZ SAUL</t>
@@ -712,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -720,16 +714,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -737,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>10313207</v>
@@ -746,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -754,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>76478671</v>
@@ -763,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -771,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>20036250</v>
@@ -780,7 +774,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -788,16 +782,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -805,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>41667405</v>
@@ -814,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -822,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>72890114</v>
@@ -831,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -839,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -856,16 +850,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -873,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>46067198</v>
@@ -882,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -890,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>10751826</v>
@@ -899,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -907,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>73830015</v>
@@ -916,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -924,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>71932542</v>
@@ -933,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -941,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>22284149</v>
@@ -950,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -958,16 +952,16 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -975,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>71942763</v>
@@ -984,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -992,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>10281988</v>
@@ -1001,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1009,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>25608087</v>
@@ -1018,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1026,16 +1020,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1043,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>74174466</v>
@@ -1052,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1060,16 +1054,16 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1077,16 +1071,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1094,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>40802035</v>
@@ -1103,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1111,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>10634270</v>
@@ -1120,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1128,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>42778331</v>
@@ -1137,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1145,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>21276405</v>
@@ -1154,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1162,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>21301845</v>
@@ -1171,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1179,16 +1173,16 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1196,16 +1190,16 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1213,16 +1207,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1230,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>72306549</v>
@@ -1239,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1247,7 +1241,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>70613887</v>
@@ -1256,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1264,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>47425100</v>
@@ -1273,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1281,16 +1275,16 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1298,16 +1292,16 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1315,7 +1309,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>10307288</v>
@@ -1324,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1332,7 +1326,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>44660228</v>
@@ -1341,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1349,16 +1343,16 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
         <v>66</v>
       </c>
-      <c r="C46" t="s">
-        <v>67</v>
-      </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1366,16 +1360,16 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s">
-        <v>69</v>
-      </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1383,16 +1377,16 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
         <v>70</v>
       </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1400,7 +1394,7 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>44068092</v>
@@ -1409,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1417,7 +1411,7 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>45077172</v>
@@ -1426,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1434,7 +1428,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>43281347</v>
@@ -1443,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1451,7 +1445,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>72701092</v>
@@ -1460,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1468,16 +1462,16 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1485,7 +1479,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>10712208</v>
@@ -1494,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1502,16 +1496,16 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
         <v>79</v>
       </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1519,16 +1513,16 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1536,7 +1530,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <v>45882664</v>
@@ -1545,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1553,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>43095718</v>
@@ -1562,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1570,7 +1564,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>41310878</v>
@@ -1579,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1587,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>18217223</v>
@@ -1596,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1604,16 +1598,16 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1621,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>42284795</v>
@@ -1630,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1638,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63">
         <v>41095867</v>
@@ -1647,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1655,16 +1649,16 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -47,250 +47,130 @@
     <t>FECHA INGRESO</t>
   </si>
   <si>
-    <t>AGUILAR APONTE JUAN PABLO</t>
-  </si>
-  <si>
-    <t>000789910</t>
-  </si>
-  <si>
-    <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
-  </si>
-  <si>
-    <t>ALVAREZ TRUJILLO YNES</t>
-  </si>
-  <si>
-    <t>06813229</t>
-  </si>
-  <si>
-    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
-  </si>
-  <si>
-    <t>ARI COAQUIRA ROLY ANTONY</t>
-  </si>
-  <si>
-    <t>ARROYO NUÑEZ CESAR AURELIO</t>
-  </si>
-  <si>
-    <t>AVELLANEDA GUERRERO LUIS CARLOMAN</t>
-  </si>
-  <si>
-    <t>06708203</t>
-  </si>
-  <si>
-    <t>CABALLERO GUILLEN RAUL</t>
-  </si>
-  <si>
-    <t>CHANDUVI SALAZAR KIARA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>CHAVEZ HUANCAYA EUSEBIA ROSA</t>
-  </si>
-  <si>
-    <t>09680835</t>
-  </si>
-  <si>
-    <t>CHAVEZ HUANCAYA OSWALDO TOMAS</t>
-  </si>
-  <si>
-    <t>08934899</t>
-  </si>
-  <si>
-    <t>CONTRERAS PAREDES KAREN NIEVES</t>
-  </si>
-  <si>
-    <t>CRISTOBAL CADAGAN RAUL ALFREDO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ GUTIERREZ ARON ALONSO</t>
-  </si>
-  <si>
-    <t>DIONICIO CORZO JOSE LUIS</t>
-  </si>
-  <si>
-    <t>FLORES BARRIOS EDWIN ALFREDO</t>
-  </si>
-  <si>
-    <t>GARCIA MORI MIRIAM MARLENE</t>
-  </si>
-  <si>
-    <t>09383118</t>
-  </si>
-  <si>
-    <t>GARCIA JUAREZ JIMENA ISABEL</t>
-  </si>
-  <si>
-    <t>GARCIA REVILLA MARIA ANA</t>
-  </si>
-  <si>
-    <t>GARCIA AREVALO ROGER WALTER</t>
-  </si>
-  <si>
-    <t>GASSER GORDILLO GUSTAVO GUILLERMO</t>
-  </si>
-  <si>
-    <t>000853189</t>
-  </si>
-  <si>
-    <t>GOMEZ CUYUBAMBA CRISTHOPER JHOEL</t>
-  </si>
-  <si>
-    <t>GONZALES IÑIGUEZ TEDDY JOSE</t>
-  </si>
-  <si>
-    <t>000458816</t>
-  </si>
-  <si>
-    <t>GROCK PEREIRA LUIS ARTURO</t>
-  </si>
-  <si>
-    <t>000692215</t>
-  </si>
-  <si>
-    <t>HERNANDEZ VALDIVIA JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>HOUGHTON ARAUJO EDUARDO MANUEL</t>
-  </si>
-  <si>
-    <t>INFANTES LIVIA ROSA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>KU MUÑOZ JHONNY AUGUSTO</t>
-  </si>
-  <si>
-    <t>KU MUÑOZ JESSICA YASMIN</t>
-  </si>
-  <si>
-    <t>LA TORRE JUSTO ANIBAL MARTIN</t>
-  </si>
-  <si>
-    <t>07038472</t>
-  </si>
-  <si>
-    <t>MASS URIBE ALVARO</t>
-  </si>
-  <si>
-    <t>000821937</t>
-  </si>
-  <si>
-    <t>MAYORCA FERREYROS MICHEL AGUSTIN</t>
-  </si>
-  <si>
-    <t>06097752</t>
-  </si>
-  <si>
-    <t>MAYORCA CABEZUDO MICHEL MAURICIO</t>
-  </si>
-  <si>
-    <t>MITAC SALLO ZULEMA</t>
-  </si>
-  <si>
-    <t>MONTALVO PACHECO KAREN LIZZET</t>
-  </si>
-  <si>
-    <t>MONTENEGRO NIEME MONICA NEL</t>
-  </si>
-  <si>
-    <t>005982120</t>
-  </si>
-  <si>
-    <t>MONTENEGRO VIRREIRA MARIO GONZALO</t>
-  </si>
-  <si>
-    <t>000148566</t>
-  </si>
-  <si>
-    <t>MONTEZA VILCA SUSANA ISABEL</t>
-  </si>
-  <si>
-    <t>OBANDO CORNEJO SERGIO DAVID</t>
-  </si>
-  <si>
-    <t>OBISPO LOPEZ JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>08165961</t>
-  </si>
-  <si>
-    <t>PANIAGUA HUMEREZ JOSE OSCAR</t>
-  </si>
-  <si>
-    <t>000435778</t>
-  </si>
-  <si>
-    <t>PEÑA CUBA RICHARD JUAN</t>
-  </si>
-  <si>
-    <t>08488980</t>
-  </si>
-  <si>
-    <t>PILCO ROMERO ERIKA MABEL</t>
-  </si>
-  <si>
-    <t>PINEDO MARINA SARA BEATRIZ</t>
-  </si>
-  <si>
-    <t>ROSADIO ESPINOZA ARTURO RAUL</t>
-  </si>
-  <si>
-    <t>SALAZAR JIMENEZ CRISY ROCIO</t>
-  </si>
-  <si>
-    <t>SAVINA . GUSTAVO FABIAN</t>
-  </si>
-  <si>
-    <t>000685634</t>
-  </si>
-  <si>
-    <t>SOLARI APARICIO ALBERTO FERNANDO</t>
-  </si>
-  <si>
-    <t>TABORGA OROZA JORGE CARLOS</t>
-  </si>
-  <si>
-    <t>000540903</t>
-  </si>
-  <si>
-    <t>TEJEDA VILLENA CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>09619538</t>
-  </si>
-  <si>
-    <t>TUÑOQUE VILCHEZ MARIA CANDELARIA</t>
-  </si>
-  <si>
-    <t>UMIÑA FLORES BEATRIZ SILVIA</t>
-  </si>
-  <si>
-    <t>URIARTE CONDORI JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>VALLEJOS BAZAN SANDRA CECILIA</t>
-  </si>
-  <si>
-    <t>VARGAS ZABALA ALBERT OSCAR</t>
-  </si>
-  <si>
-    <t>000809716</t>
-  </si>
-  <si>
-    <t>VELA VASQUEZ SAUL</t>
-  </si>
-  <si>
-    <t>VERGARAY ARBIETO DE LOURS LISSETTE MIRELLE</t>
-  </si>
-  <si>
-    <t>VIRREIRA AVILA MAURICIO MARTIN</t>
-  </si>
-  <si>
-    <t>000426973</t>
+    <t>ACEVEDO CHAVEZ JAVIER</t>
+  </si>
+  <si>
+    <t>390000 EPC RECAPEX II</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ACUÑA CAMPOS KATHIA GIULIANA</t>
+  </si>
+  <si>
+    <t>ALCARRAZ HERRERA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>BERRU GUEVARA ANDRES CRISTHIAN</t>
+  </si>
+  <si>
+    <t>CATACORA RAZO LUZMERY PAULA</t>
+  </si>
+  <si>
+    <t>CONDORI CHAPARRO DANIEL</t>
+  </si>
+  <si>
+    <t>07473313</t>
+  </si>
+  <si>
+    <t>COSSIO LOPEZ JOSE ENRIQUE</t>
+  </si>
+  <si>
+    <t>CULQUI CRIOLLO RICARDO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ RIVERA IVAN EUSTAQUIO</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO RUIZ MARVIN SANTIAGO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ SALAS BORIS ANDRE</t>
+  </si>
+  <si>
+    <t>FLORES CARMONA ALEJANDRO</t>
+  </si>
+  <si>
+    <t>FLORES NEYRA JOHNNY</t>
+  </si>
+  <si>
+    <t>FRIAS ANCAJIMA CESAR AUGUSTO</t>
+  </si>
+  <si>
+    <t>GUEVARA TORRES ANDER OSLER</t>
+  </si>
+  <si>
+    <t>HUANIO PAIMA ROBERT</t>
+  </si>
+  <si>
+    <t>LENGUA SARAVIA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>MARIN GASTELU DAVID CALEB</t>
+  </si>
+  <si>
+    <t>MONROY CHUNGA GERALD DANY</t>
+  </si>
+  <si>
+    <t>03897077</t>
+  </si>
+  <si>
+    <t>MONTENEGRO MOLINA HERASMO</t>
+  </si>
+  <si>
+    <t>008639724</t>
+  </si>
+  <si>
+    <t>NOVOA PIZARRO JAIME SANTIAGO</t>
+  </si>
+  <si>
+    <t>ORBE ISUIZA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>PEREZ DESCALZI CARLOS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PORRAS SOTIL CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>QUIROZ CIRIACO LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>ROCA AVENDAÑO ROBERTO</t>
+  </si>
+  <si>
+    <t>008536028</t>
+  </si>
+  <si>
+    <t>ROSALES MAMANI  LISBET ANGIE</t>
+  </si>
+  <si>
+    <t>RUIZ TORRES LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>SANCHEZ MARINO JUAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>SILVESTRE BEJARANO ESTHER NANCY</t>
+  </si>
+  <si>
+    <t>TIZON RAMIREZ BENIGNO ANTONIO RUPERTO</t>
+  </si>
+  <si>
+    <t>TURPO CHILE ELISEO WILFREDO</t>
+  </si>
+  <si>
+    <t>VARGAS ROJAS CESAR JAVIER</t>
+  </si>
+  <si>
+    <t>VASQUEZ ALFARO LUIS ARNOLD</t>
+  </si>
+  <si>
+    <t>VILAR GUTIERREZ JORGE MIGUEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>008640258</t>
   </si>
 </sst>
 </file>
@@ -629,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,14 +562,14 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>47960091</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -697,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>70082701</v>
+        <v>46605432</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -714,16 +594,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>70055164</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -731,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>10313207</v>
+        <v>40778235</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -748,16 +628,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>76478671</v>
+        <v>42132408</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -765,16 +645,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>20036250</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -782,16 +662,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>44823974</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -799,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>41667405</v>
+        <v>42363352</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -816,16 +696,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>72890114</v>
+        <v>16123862</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -833,16 +713,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>72654693</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -850,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>41929321</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -867,16 +747,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>46067198</v>
+        <v>43162015</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -884,16 +764,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>10751826</v>
+        <v>40908346</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -901,16 +781,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>73830015</v>
+        <v>41413571</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -918,16 +798,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>71932542</v>
+        <v>46078454</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -935,16 +815,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>22284149</v>
+        <v>43164161</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -952,16 +832,16 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>43178225</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -969,16 +849,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>71942763</v>
+        <v>45711527</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -986,16 +866,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>10281988</v>
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1003,16 +883,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>25608087</v>
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1020,16 +900,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>41090322</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1037,16 +917,16 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>74174466</v>
+        <v>44085611</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1054,16 +934,16 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>15855546</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1071,16 +951,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>22308082</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1088,16 +968,16 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>40802035</v>
+        <v>72433532</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1105,16 +985,16 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32">
-        <v>10634270</v>
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1122,16 +1002,16 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>42778331</v>
+        <v>76742784</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1139,16 +1019,16 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>21276405</v>
+        <v>42743571</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1156,16 +1036,16 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>21301845</v>
+        <v>43563747</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1173,16 +1053,16 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>21136515</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1190,16 +1070,16 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>22297859</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1207,16 +1087,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>40423524</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1224,16 +1104,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>72306549</v>
+        <v>25849265</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1241,16 +1121,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C40">
-        <v>70613887</v>
+        <v>46831991</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1258,407 +1138,16 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>47425100</v>
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44">
-        <v>10307288</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45">
-        <v>44660228</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49">
-        <v>44068092</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50">
-        <v>45077172</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51">
-        <v>43281347</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52">
-        <v>72701092</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54">
-        <v>10712208</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57">
-        <v>45882664</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58">
-        <v>43095718</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59">
-        <v>41310878</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60">
-        <v>18217223</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>56</v>
-      </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62">
-        <v>42284795</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63">
-        <v>41095867</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>58</v>
-      </c>
-      <c r="B64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -47,130 +47,244 @@
     <t>FECHA INGRESO</t>
   </si>
   <si>
-    <t>ACEVEDO CHAVEZ JAVIER</t>
-  </si>
-  <si>
-    <t>390000 EPC RECAPEX II</t>
+    <t>ALARCON MIRANDA ESTEFANIA CRISTINA</t>
+  </si>
+  <si>
+    <t>020000 ADMINISTRACION DE OFICINA / Sede Lima</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ACUÑA CAMPOS KATHIA GIULIANA</t>
-  </si>
-  <si>
-    <t>ALCARRAZ HERRERA MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>BERRU GUEVARA ANDRES CRISTHIAN</t>
-  </si>
-  <si>
-    <t>CATACORA RAZO LUZMERY PAULA</t>
-  </si>
-  <si>
-    <t>CONDORI CHAPARRO DANIEL</t>
-  </si>
-  <si>
-    <t>07473313</t>
-  </si>
-  <si>
-    <t>COSSIO LOPEZ JOSE ENRIQUE</t>
-  </si>
-  <si>
-    <t>CULQUI CRIOLLO RICARDO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ RIVERA IVAN EUSTAQUIO</t>
-  </si>
-  <si>
-    <t>DEL CASTILLO RUIZ MARVIN SANTIAGO</t>
-  </si>
-  <si>
-    <t>FERNANDEZ SALAS BORIS ANDRE</t>
-  </si>
-  <si>
-    <t>FLORES CARMONA ALEJANDRO</t>
-  </si>
-  <si>
-    <t>FLORES NEYRA JOHNNY</t>
-  </si>
-  <si>
-    <t>FRIAS ANCAJIMA CESAR AUGUSTO</t>
-  </si>
-  <si>
-    <t>GUEVARA TORRES ANDER OSLER</t>
-  </si>
-  <si>
-    <t>HUANIO PAIMA ROBERT</t>
-  </si>
-  <si>
-    <t>LENGUA SARAVIA MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>MARIN GASTELU DAVID CALEB</t>
-  </si>
-  <si>
-    <t>MONROY CHUNGA GERALD DANY</t>
-  </si>
-  <si>
-    <t>03897077</t>
-  </si>
-  <si>
-    <t>MONTENEGRO MOLINA HERASMO</t>
-  </si>
-  <si>
-    <t>008639724</t>
-  </si>
-  <si>
-    <t>NOVOA PIZARRO JAIME SANTIAGO</t>
-  </si>
-  <si>
-    <t>ORBE ISUIZA MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>PEREZ DESCALZI CARLOS ENRIQUE</t>
-  </si>
-  <si>
-    <t>PORRAS SOTIL CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>QUIROZ CIRIACO LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>ROCA AVENDAÑO ROBERTO</t>
-  </si>
-  <si>
-    <t>008536028</t>
-  </si>
-  <si>
-    <t>ROSALES MAMANI  LISBET ANGIE</t>
-  </si>
-  <si>
-    <t>RUIZ TORRES LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>SANCHEZ MARINO JUAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>SILVESTRE BEJARANO ESTHER NANCY</t>
-  </si>
-  <si>
-    <t>TIZON RAMIREZ BENIGNO ANTONIO RUPERTO</t>
-  </si>
-  <si>
-    <t>TURPO CHILE ELISEO WILFREDO</t>
-  </si>
-  <si>
-    <t>VARGAS ROJAS CESAR JAVIER</t>
-  </si>
-  <si>
-    <t>VASQUEZ ALFARO LUIS ARNOLD</t>
-  </si>
-  <si>
-    <t>VILAR GUTIERREZ JORGE MIGUEL FRANCISCO</t>
-  </si>
-  <si>
-    <t>008640258</t>
+    <t>ALVAREZ TRUJILLO YNES</t>
+  </si>
+  <si>
+    <t>06813229</t>
+  </si>
+  <si>
+    <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
+  </si>
+  <si>
+    <t>ARROYO NUÑEZ CESAR AURELIO</t>
+  </si>
+  <si>
+    <t>AVELLANEDA GUERRERO LUIS CARLOMAN</t>
+  </si>
+  <si>
+    <t>06708203</t>
+  </si>
+  <si>
+    <t>CABALLERO GUILLEN RAUL</t>
+  </si>
+  <si>
+    <t>CHANDUVI SALAZAR KIARA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA EUSEBIA ROSA</t>
+  </si>
+  <si>
+    <t>09680835</t>
+  </si>
+  <si>
+    <t>CHAVEZ HUANCAYA OSWALDO TOMAS</t>
+  </si>
+  <si>
+    <t>08934899</t>
+  </si>
+  <si>
+    <t>CONTRERAS PAREDES KAREN NIEVES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL CADAGAN RAUL ALFREDO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ GUTIERREZ ARON ALONSO</t>
+  </si>
+  <si>
+    <t>DIONICIO CORZO JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FLORES BARRIOS EDWIN ALFREDO</t>
+  </si>
+  <si>
+    <t>GARCIA MORI MIRIAM MARLENE</t>
+  </si>
+  <si>
+    <t>09383118</t>
+  </si>
+  <si>
+    <t>GARCIA JUAREZ JIMENA ISABEL</t>
+  </si>
+  <si>
+    <t>GARCIA REVILLA MARIA ANA</t>
+  </si>
+  <si>
+    <t>GARCIA AREVALO ROGER WALTER</t>
+  </si>
+  <si>
+    <t>GASSER GORDILLO GUSTAVO GUILLERMO</t>
+  </si>
+  <si>
+    <t>000853189</t>
+  </si>
+  <si>
+    <t>GOMEZ CUYUBAMBA CRISTHOPER JHOEL</t>
+  </si>
+  <si>
+    <t>GONZALES IÑIGUEZ TEDDY JOSE</t>
+  </si>
+  <si>
+    <t>000458816</t>
+  </si>
+  <si>
+    <t>GROCK PEREIRA LUIS ARTURO</t>
+  </si>
+  <si>
+    <t>000692215</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VALDIVIA JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>HOUGHTON ARAUJO EDUARDO MANUEL</t>
+  </si>
+  <si>
+    <t>INFANTES LIVIA ROSA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JHONNY AUGUSTO</t>
+  </si>
+  <si>
+    <t>KU MUÑOZ JESSICA YASMIN</t>
+  </si>
+  <si>
+    <t>LA TORRE JUSTO ANIBAL MARTIN</t>
+  </si>
+  <si>
+    <t>07038472</t>
+  </si>
+  <si>
+    <t>MASS URIBE ALVARO</t>
+  </si>
+  <si>
+    <t>000821937</t>
+  </si>
+  <si>
+    <t>MAYORCA FERREYROS MICHEL AGUSTIN</t>
+  </si>
+  <si>
+    <t>06097752</t>
+  </si>
+  <si>
+    <t>MITAC SALLO ZULEMA</t>
+  </si>
+  <si>
+    <t>MONTALVO PACHECO KAREN LIZZET</t>
+  </si>
+  <si>
+    <t>MONTENEGRO NIEME MONICA NEL</t>
+  </si>
+  <si>
+    <t>005982120</t>
+  </si>
+  <si>
+    <t>MONTENEGRO VIRREIRA MARIO GONZALO</t>
+  </si>
+  <si>
+    <t>000148566</t>
+  </si>
+  <si>
+    <t>MONTEZA VILCA SUSANA ISABEL</t>
+  </si>
+  <si>
+    <t>OBANDO CORNEJO SERGIO DAVID</t>
+  </si>
+  <si>
+    <t>OBISPO LOPEZ JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>08165961</t>
+  </si>
+  <si>
+    <t>PANIAGUA HUMEREZ JOSE OSCAR</t>
+  </si>
+  <si>
+    <t>000435778</t>
+  </si>
+  <si>
+    <t>PEÑA CUBA RICHARD JUAN</t>
+  </si>
+  <si>
+    <t>08488980</t>
+  </si>
+  <si>
+    <t>PILCO ROMERO ERIKA MABEL</t>
+  </si>
+  <si>
+    <t>PINEDO MARINA SARA BEATRIZ</t>
+  </si>
+  <si>
+    <t>ROSADIO ESPINOZA ARTURO RAUL</t>
+  </si>
+  <si>
+    <t>SALAZAR JIMENEZ CRISY ROCIO</t>
+  </si>
+  <si>
+    <t>SAVINA . GUSTAVO FABIAN</t>
+  </si>
+  <si>
+    <t>000685634</t>
+  </si>
+  <si>
+    <t>SOLARI APARICIO ALBERTO FERNANDO</t>
+  </si>
+  <si>
+    <t>TABORGA OROZA JORGE CARLOS</t>
+  </si>
+  <si>
+    <t>000540903</t>
+  </si>
+  <si>
+    <t>TEJEDA VILLENA CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>09619538</t>
+  </si>
+  <si>
+    <t>TUÑOQUE VILCHEZ MARIA CANDELARIA</t>
+  </si>
+  <si>
+    <t>UMIÑA FLORES BEATRIZ SILVIA</t>
+  </si>
+  <si>
+    <t>UNZUETA SANTOS SALLY STEFANY</t>
+  </si>
+  <si>
+    <t>URETA AGUILAR KESLY</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>URIARTE CONDORI JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>VALLEJOS BAZAN SANDRA CECILIA</t>
+  </si>
+  <si>
+    <t>VARGAS ZABALA ALBERT OSCAR</t>
+  </si>
+  <si>
+    <t>000809716</t>
+  </si>
+  <si>
+    <t>VELA VASQUEZ SAUL</t>
+  </si>
+  <si>
+    <t>VIRREIRA AVILA MAURICIO MARTIN</t>
+  </si>
+  <si>
+    <t>000426973</t>
   </si>
 </sst>
 </file>
@@ -509,7 +623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>47960091</v>
+        <v>70082701</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -579,8 +693,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>46605432</v>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -594,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>70055164</v>
+        <v>10313207</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -611,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>40778235</v>
+        <v>20036250</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -628,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>42132408</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -645,10 +759,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>41667405</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -662,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>44823974</v>
+        <v>72890114</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -679,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>42363352</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -696,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>16123862</v>
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -713,10 +827,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>72654693</v>
+        <v>46067198</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -730,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>41929321</v>
+        <v>10751826</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -747,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>43162015</v>
+        <v>73830015</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -764,10 +878,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>40908346</v>
+        <v>71932542</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -781,10 +895,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>41413571</v>
+        <v>22284149</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -798,10 +912,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>46078454</v>
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -815,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>43164161</v>
+        <v>71942763</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -832,10 +946,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>43178225</v>
+        <v>10281988</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -849,10 +963,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>45711527</v>
+        <v>25608087</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -866,10 +980,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -883,10 +997,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>74174466</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -900,10 +1014,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27">
-        <v>41090322</v>
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -917,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>44085611</v>
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -934,10 +1048,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>15855546</v>
+        <v>40802035</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -951,10 +1065,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>22308082</v>
+        <v>10634270</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -968,10 +1082,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>72433532</v>
+        <v>42778331</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -985,10 +1099,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>21276405</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1002,10 +1116,10 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>76742784</v>
+        <v>21301845</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1019,10 +1133,10 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>42743571</v>
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1036,10 +1150,10 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>43563747</v>
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1053,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>21136515</v>
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1070,10 +1184,10 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>22297859</v>
+        <v>70613887</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1087,10 +1201,10 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>40423524</v>
+        <v>47425100</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1104,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39">
-        <v>25849265</v>
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1121,10 +1235,10 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40">
-        <v>46831991</v>
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1138,15 +1252,372 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>10307288</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>44660228</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>44068092</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>45077172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>43281347</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>72701092</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>10712208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>45882664</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55">
+        <v>43095718</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>71844394</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
         <v>51</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>71169364</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>41310878</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>18217223</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>42284795</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
         <v>12</v>
       </c>
     </row>

--- a/documentos/plantillas/plantillaRegistros.xlsx
+++ b/documentos/plantillas/plantillaRegistros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>SEPCON S.A.C</t>
   </si>
@@ -65,6 +65,9 @@
     <t>ALVAREZ TRUJILLO CARMEN CECILIA</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>ARROYO NUÑEZ CESAR AURELIO</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>FLORES BARRIOS EDWIN ALFREDO</t>
   </si>
   <si>
+    <t>FLORES ROSALES ANA LUISA</t>
+  </si>
+  <si>
     <t>GARCIA MORI MIRIAM MARLENE</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>SALAZAR JIMENEZ CRISY ROCIO</t>
   </si>
   <si>
+    <t>SARAVIA PALOMINO JOSE ANTONIO</t>
+  </si>
+  <si>
     <t>SAVINA . GUSTAVO FABIAN</t>
   </si>
   <si>
@@ -261,9 +270,6 @@
   </si>
   <si>
     <t>URETA AGUILAR KESLY</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>URIARTE CONDORI JUAN CARLOS</t>
@@ -623,7 +629,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -725,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>20036250</v>
@@ -742,10 +748,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -759,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>41667405</v>
@@ -776,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>72890114</v>
@@ -793,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -810,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -827,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>46067198</v>
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>10751826</v>
@@ -861,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>73830015</v>
@@ -878,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>71932542</v>
@@ -895,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>22284149</v>
@@ -912,10 +918,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
         <v>31</v>
+      </c>
+      <c r="C21">
+        <v>70341835</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -931,8 +937,8 @@
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22">
-        <v>71942763</v>
+      <c r="C22" t="s">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -946,10 +952,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>10281988</v>
+        <v>71942763</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -963,10 +969,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>25608087</v>
+        <v>10281988</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -980,10 +986,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
         <v>36</v>
+      </c>
+      <c r="C25">
+        <v>25608087</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -999,8 +1005,8 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26">
-        <v>74174466</v>
+      <c r="C26" t="s">
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1014,10 +1020,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
         <v>39</v>
+      </c>
+      <c r="C27">
+        <v>74174466</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1050,8 +1056,8 @@
       <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
-        <v>40802035</v>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1065,10 +1071,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>10634270</v>
+        <v>40802035</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1082,10 +1088,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>42778331</v>
+        <v>10634270</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1099,10 +1105,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>21276405</v>
+        <v>42778331</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1116,10 +1122,10 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>21301845</v>
+        <v>21276405</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1133,10 +1139,10 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
         <v>48</v>
+      </c>
+      <c r="C34">
+        <v>21301845</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1186,8 +1192,8 @@
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37">
-        <v>70613887</v>
+      <c r="C37" t="s">
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1201,10 +1207,10 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>47425100</v>
+        <v>70613887</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1218,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
         <v>56</v>
+      </c>
+      <c r="C39">
+        <v>47425100</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1254,8 +1260,8 @@
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41">
-        <v>10307288</v>
+      <c r="C41" t="s">
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1269,10 +1275,10 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>44660228</v>
+        <v>10307288</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1286,10 +1292,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
         <v>62</v>
+      </c>
+      <c r="C43">
+        <v>44660228</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -1339,8 +1345,8 @@
       <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="C46">
-        <v>44068092</v>
+      <c r="C46" t="s">
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -1354,10 +1360,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47">
-        <v>45077172</v>
+        <v>44068092</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -1371,10 +1377,10 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48">
-        <v>43281347</v>
+        <v>45077172</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1388,10 +1394,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49">
-        <v>72701092</v>
+        <v>43281347</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -1405,10 +1411,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
         <v>72</v>
+      </c>
+      <c r="C50">
+        <v>72701092</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -1425,7 +1431,7 @@
         <v>73</v>
       </c>
       <c r="C51">
-        <v>10712208</v>
+        <v>77223704</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -1458,8 +1464,8 @@
       <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" t="s">
-        <v>77</v>
+      <c r="C53">
+        <v>10712208</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -1473,10 +1479,10 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
         <v>78</v>
-      </c>
-      <c r="C54">
-        <v>45882664</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -1492,8 +1498,8 @@
       <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="C55">
-        <v>43095718</v>
+      <c r="C55" t="s">
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -1507,10 +1513,10 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56">
-        <v>71844394</v>
+        <v>45882664</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -1524,16 +1530,16 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57">
-        <v>71169364</v>
+        <v>43095718</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1544,7 +1550,7 @@
         <v>83</v>
       </c>
       <c r="C58">
-        <v>41310878</v>
+        <v>71844394</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -1561,7 +1567,7 @@
         <v>84</v>
       </c>
       <c r="C59">
-        <v>18217223</v>
+        <v>71169364</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -1577,14 +1583,14 @@
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60" t="s">
-        <v>86</v>
+      <c r="C60">
+        <v>41310878</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1592,16 +1598,16 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
-        <v>42284795</v>
+        <v>18217223</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1609,15 +1615,49 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
         <v>88</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C63">
+        <v>42284795</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
         <v>12</v>
       </c>
     </row>
